--- a/mobi_client/mobi_client/mobi_config/excel/AVGScripts/短信内容/功能性短信/功能性短信.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/AVGScripts/短信内容/功能性短信/功能性短信.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13890" tabRatio="786" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12090" tabRatio="786"/>
   </bookViews>
   <sheets>
     <sheet name="chat_wuzi|可以领取物资" sheetId="5" r:id="rId1"/>
@@ -16,11 +16,10 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'chat_wuzi|可以领取物资'!$A$1:$H$53</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'chat_day2|第二天收到'!$A$1:$H$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'chat_day2|第二天收到'!$A$1:$H$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chat_day4|第四天收到'!$A$1:$H$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'chat_daypass|隔两天收到'!$A$1:$H$35</definedName>
   </definedNames>
@@ -257,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="117">
   <si>
     <t>说明</t>
   </si>
@@ -362,7 +361,7 @@
     <t>应该的。</t>
   </si>
   <si>
-    <t>1.5&gt;&gt;</t>
+    <t>2.5&gt;&gt;</t>
   </si>
   <si>
     <t>作为奖励，后勤部准备了新人福利。</t>
@@ -401,7 +400,7 @@
     <t>第二天收到</t>
   </si>
   <si>
-    <t>0.7&gt;&gt;</t>
+    <t>1.7&gt;&gt;</t>
   </si>
   <si>
     <t>tuling</t>
@@ -419,7 +418,7 @@
     <t>这么热情。</t>
   </si>
   <si>
-    <t>0.9&gt;&gt;</t>
+    <t>1.9&gt;&gt;</t>
   </si>
   <si>
     <t>▄︻┻┳═一…… ☆（&gt;○&lt;）看你第二天也准时报到了，问候一下。</t>
@@ -464,7 +463,7 @@
     <t>稳定剂</t>
   </si>
   <si>
-    <t>1.1&gt;&gt;</t>
+    <t>2.1&gt;&gt;</t>
   </si>
   <si>
     <t>kaiselin</t>
@@ -536,7 +535,7 @@
     <t>考勤有问题？我用了调休的……</t>
   </si>
   <si>
-    <t>1.8&gt;&gt;</t>
+    <t>3&gt;&gt;</t>
   </si>
   <si>
     <t>你是队长，不用算考勤好吧！</t>
@@ -584,7 +583,7 @@
     <t>好好好，我记着呢。</t>
   </si>
   <si>
-    <t>1.6&gt;&gt;</t>
+    <t>2.6&gt;&gt;</t>
   </si>
   <si>
     <t>我去忙了！</t>
@@ -2443,27 +2442,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="chat_wuzi|可以领取物资"/>
-      <sheetName val="chat_day2|第二天收到"/>
-      <sheetName val="chat_day4|第四天收到"/>
-      <sheetName val="chat_daypass|隔两天收到"/>
-      <sheetName val="辅助表"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -2724,10 +2702,10 @@
   <sheetPr/>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -2774,40 +2752,25 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="20" t="str">
+      <c r="D2" s="20" t="e">
         <f ca="1">INDEX($D$5:$D$837,CELL("row")-4)</f>
-        <v>角色台词</v>
-      </c>
-      <c r="E2" s="21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E2" s="21" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>npc_meiluni
-【行为主体，NPC别名，在角色表中配置】</v>
-      </c>
-      <c r="F2" s="21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2" s="21" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>啊，{talk,,102102}{s=0.5}{1.0}节日的{suspend=1}一天！{角色动作,,1002}{角色表情,,10040;20030}{镜头切换,1}终于可以&lt;color=red&gt;休息&lt;/color&gt;了啊！{镜头移动,2,1}{autoend}
-【talk代表说话的口型，ID在编辑器animator中配置。这个命令跟外部写法“角色说话”不同】
-【命令用{}括起】
-【sleep代表停顿，可不填，文本播放在此停顿n秒后继续播放】
-【color代表颜色，可以写英文可以写色号，文字样式改变的命令还有&lt;b&gt;&lt;/b&gt;粗体，&lt;i&gt;&lt;/i&gt;斜体，&lt;size=60&gt;&lt;/size&gt;字号，】
-【shake代表抖动，1=文字框抖动，2=摄像机抖动，3=二者一起抖动】
-【s代表文字速度，原speed，数值越小越快】
-【suspend代表停顿，需要玩家手动点击文本才会继续播放下去，在同一个句子中出现多处停顿时，suspend后的数值要依次+1】
-【autoend代表自动结束，加在文字最后可实现不需要点击就自动执行后面action】
-【voice代表本句打字机使用的声音，填写mobi_client\mobi_client\Assets\Resources\avg\audios路径下的文件名字。可不填写，使用AVG人物表种填写的文件名，如单句不想播放声音，需在添加voice=none，不需要填写后缀名，填写格式,例voice=voice_didi_man_2】
-</v>
-      </c>
-      <c r="G2" s="22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G2" s="22" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>rui_01
-【语音文件的名字】</v>
-      </c>
-      <c r="H2" s="22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H2" s="22" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>type=2,offx=1.5,offy=-0.4,bubbleStyle=2,bubbleFlipX=1
-recall=1,scale=1.3,rotate=30
-【recall代表文字居中，默认是左对齐】
-【type代表文字框类型，可不填，则默认是0。1=电影字幕，2=泡泡框，3=推理对话。在类型是2的情况下，bubbleStyle代表泡泡类型，1=云朵形；2=锯齿形；3=普通形，X代表X轴偏移，Y代表Y轴偏移，正坐标系，BubbleFlipX代表镜像，scale代表底板的缩放，默认是1,,rotate旋转角度默认0】</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J2" s="37" t="s">
         <v>6</v>
@@ -3320,12 +3283,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -3372,25 +3335,25 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="20">
-        <f ca="1">INDEX($D$5:$D$834,CELL("row")-4)</f>
-        <v>0</v>
+      <c r="D2" s="20" t="e">
+        <f ca="1">INDEX($D$5:$D$833,CELL("row")-4)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E2" s="21" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F2" s="21" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G2" s="22" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H2" s="22" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J2" s="37" t="s">
         <v>6</v>
@@ -3649,7 +3612,7 @@
     </row>
     <row r="17" customHeight="1" spans="1:6">
       <c r="A17" s="33">
-        <f t="shared" ref="A17:A26" si="1">ROW()-6</f>
+        <f>ROW()-6</f>
         <v>11</v>
       </c>
       <c r="B17" s="11"/>
@@ -3666,7 +3629,7 @@
     </row>
     <row r="18" ht="47" customHeight="1" spans="1:6">
       <c r="A18" s="33">
-        <f t="shared" si="1"/>
+        <f>ROW()-6</f>
         <v>12</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -3685,7 +3648,7 @@
     </row>
     <row r="19" customHeight="1" spans="1:6">
       <c r="A19" s="33">
-        <f t="shared" si="1"/>
+        <f>ROW()-6</f>
         <v>13</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -3702,18 +3665,23 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:6">
+    <row r="20" ht="47" customHeight="1" spans="1:6">
       <c r="A20" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A20:A25" si="1">ROW()-6</f>
         <v>14</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" ht="47" customHeight="1" spans="1:6">
@@ -3721,44 +3689,42 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" ht="47" customHeight="1" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:6">
       <c r="A22" s="33">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="C22" s="11"/>
-      <c r="D22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" customHeight="1" spans="1:6">
       <c r="A23" s="33">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>65</v>
-      </c>
+      <c r="B23" s="11"/>
       <c r="C23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="D23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="24" customHeight="1" spans="1:6">
       <c r="A24" s="33">
@@ -3767,41 +3733,27 @@
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>66</v>
-      </c>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" customHeight="1" spans="1:6">
       <c r="A25" s="33">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="C25" s="11"/>
       <c r="F25" s="11"/>
     </row>
     <row r="26" customHeight="1" spans="1:6">
-      <c r="A26" s="33">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="A26" s="33"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" customHeight="1" spans="1:6">
+    <row r="27" customHeight="1" spans="1:1">
       <c r="A27" s="33"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="F27" s="11"/>
     </row>
     <row r="28" customHeight="1" spans="1:1">
       <c r="A28" s="33"/>
@@ -3869,15 +3821,12 @@
     <row r="49" customHeight="1" spans="1:1">
       <c r="A49" s="33"/>
     </row>
-    <row r="50" customHeight="1" spans="1:1">
-      <c r="A50" s="33"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H50">
+  <autoFilter ref="A1:H49">
     <extLst/>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D8:D9 D25:D27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D8:D9 D24:D26">
       <formula1>辅助表!$D$6:$D$74</formula1>
     </dataValidation>
   </dataValidations>
@@ -3896,7 +3845,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -3943,25 +3892,25 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="20">
+      <c r="D2" s="20" t="e">
         <f ca="1">INDEX($D$5:$D$827,CELL("row")-4)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E2" s="21" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F2" s="21" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G2" s="22" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H2" s="22" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J2" s="37" t="s">
         <v>6</v>
@@ -4389,10 +4338,10 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -4439,40 +4388,25 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="20" t="str">
+      <c r="D2" s="20" t="e">
         <f ca="1">INDEX($D$5:$D$819,CELL("row")-4)</f>
-        <v>角色台词</v>
-      </c>
-      <c r="E2" s="21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E2" s="21" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>npc_meiluni
-【行为主体，NPC别名，在角色表中配置】</v>
-      </c>
-      <c r="F2" s="21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2" s="21" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>啊，{talk,,102102}{s=0.5}{1.0}节日的{suspend=1}一天！{角色动作,,1002}{角色表情,,10040;20030}{镜头切换,1}终于可以&lt;color=red&gt;休息&lt;/color&gt;了啊！{镜头移动,2,1}{autoend}
-【talk代表说话的口型，ID在编辑器animator中配置。这个命令跟外部写法“角色说话”不同】
-【命令用{}括起】
-【sleep代表停顿，可不填，文本播放在此停顿n秒后继续播放】
-【color代表颜色，可以写英文可以写色号，文字样式改变的命令还有&lt;b&gt;&lt;/b&gt;粗体，&lt;i&gt;&lt;/i&gt;斜体，&lt;size=60&gt;&lt;/size&gt;字号，】
-【shake代表抖动，1=文字框抖动，2=摄像机抖动，3=二者一起抖动】
-【s代表文字速度，原speed，数值越小越快】
-【suspend代表停顿，需要玩家手动点击文本才会继续播放下去，在同一个句子中出现多处停顿时，suspend后的数值要依次+1】
-【autoend代表自动结束，加在文字最后可实现不需要点击就自动执行后面action】
-【voice代表本句打字机使用的声音，填写mobi_client\mobi_client\Assets\Resources\avg\audios路径下的文件名字。可不填写，使用AVG人物表种填写的文件名，如单句不想播放声音，需在添加voice=none，不需要填写后缀名，填写格式,例voice=voice_didi_man_2】
-</v>
-      </c>
-      <c r="G2" s="22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G2" s="22" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>rui_01
-【语音文件的名字】</v>
-      </c>
-      <c r="H2" s="22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H2" s="22" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>type=2,offx=1.5,offy=-0.4,bubbleStyle=2,bubbleFlipX=1
-recall=1,scale=1.3,rotate=30
-【recall代表文字居中，默认是左对齐】
-【type代表文字框类型，可不填，则默认是0。1=电影字幕，2=泡泡框，3=推理对话。在类型是2的情况下，bubbleStyle代表泡泡类型，1=云朵形；2=锯齿形；3=普通形，X代表X轴偏移，Y代表Y轴偏移，正坐标系，BubbleFlipX代表镜像，scale代表底板的缩放，默认是1,,rotate旋转角度默认0】</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J2" s="37" t="s">
         <v>6</v>
@@ -4676,7 +4610,6 @@
       <c r="D13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="11"/>
       <c r="F13" s="12" t="s">
         <v>94</v>
       </c>
@@ -4690,7 +4623,6 @@
         <v>95</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
       <c r="F14" s="11"/>
     </row>
     <row r="15" customHeight="1" spans="1:6">
@@ -4962,7 +4894,7 @@
   </autoFilter>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D10 D11 D12 D15 D16 D19 D20 D21 D22 D23 D26 D27 D28 D29 D8:D9 D13:D14 D17:D18 D24:D25">
-      <formula1>[3]辅助表!#REF!</formula1>
+      <formula1/>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
